--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CE000-1F8F-4E0A-8E36-F9FF5104B956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E09BD7-2477-491F-9BD0-712CB9698DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>Authors</t>
   </si>
@@ -729,6 +729,10 @@
          In that block, congruent evaluation trials were faster regardless if the 
          current trial was an "evaluation" trial or a "semantic" trial.
 Onset time - in the semantic block, onset was shorter for congruent trials.</t>
+  </si>
+  <si>
+    <t>Semantic priming
+Emotional</t>
   </si>
 </sst>
 </file>
@@ -829,13 +833,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>234042</xdr:colOff>
+      <xdr:colOff>226266</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>146958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7091766</xdr:colOff>
+      <xdr:colOff>7083990</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2803338</xdr:rowOff>
     </xdr:to>
@@ -860,7 +864,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16491856" y="326572"/>
+          <a:off x="25842685" y="325794"/>
           <a:ext cx="6857724" cy="2656380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1752,7 +1756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="127.3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>89</v>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E09BD7-2477-491F-9BD0-712CB9698DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71CBC68-1C93-42E3-9569-29FD4F9900DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Authors</t>
   </si>
@@ -63,17 +63,6 @@
     <t>AUC - area between optimal path and real path</t>
   </si>
   <si>
-    <t>Path offset value - distance from optimal path at each timepoint, divided by the optimal path.
-Cumulative submovment amplitude - how far from the target the subject is planning on going, at each timepoint.</t>
-  </si>
-  <si>
-    <t>POV:
-Sig congruency effect, earlier and larger for non-novel primes.
-Reaches sig after 330ms for non-nocel (375 when corrected for multiple comparisons).
-CSA:
-Sig congruency effect between 120-340ms.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -95,12 +84,6 @@
       </rPr>
       <t>Grasping with the eyes: The role of elongation in visual recognition of manipulable objects</t>
     </r>
-  </si>
-  <si>
-    <t>CFS Masking
-Prime: picture, Tool / Animal
-Target: picture,Elongatged tool / "blob" like animal
-Task: Categorize as animal / tool</t>
   </si>
   <si>
     <r>
@@ -156,40 +139,13 @@
     <t>conceptual priming</t>
   </si>
   <si>
-    <t>POV, CSA:
-novel+repeated primes cause similar congruency effect as repeated primes (look in exp 1).</t>
-  </si>
-  <si>
     <t>Friedman, J., &amp; Finkbeiner, M. (2010)</t>
   </si>
   <si>
     <t>Temporal dynamics of masked congruence priming: evidence from reaching trajectories</t>
   </si>
   <si>
-    <t>Number of submovements
-Direction of submovement
-Distance planned - I think this is implied endpoint in every timepoint</t>
-  </si>
-  <si>
-    <t>More submovements were more common in incongruent trials,
-less submovements were more common in congreunt trials.
-Direction of 2nd and 3rd submovements tilted to the wrong target in incongruent submovements.
-Distance planned (implied endpoint) reached target earlier in congruent trials.</t>
-  </si>
-  <si>
     <t>Finkbeiner, M., Song, J. H., Nakayama, K., &amp; Caramazza, A. (2008)</t>
-  </si>
-  <si>
-    <t>Masking
-Prime: letter / digit sequence, either novel, repeated or novel+repeated (same letters diff font).
-Target: letter / digit sequence
-Task: Categorize as letter / digit</t>
-  </si>
-  <si>
-    <t>Masking
-Prime: picture, Person / Animal, either novel or repeated (apear as target as well)
-Target: picture, Person / Animal
-Task: Categorize as person / animal</t>
   </si>
   <si>
     <t>Masking
@@ -204,11 +160,6 @@
 Task: target represents a red/green item?.</t>
   </si>
   <si>
-    <t>Reaction time
-Total time (RT)
-Maximum curvature - Ratio between max distance from optimal path and length of optimal path</t>
-  </si>
-  <si>
     <t>Maximum Curvature - greater in incongruent trials.
 Total time - longer for incongruent trials.</t>
   </si>
@@ -305,13 +256,6 @@
     </r>
   </si>
   <si>
-    <t>Meta contrast masking?
-Prime: red/green disks of diff color, SOA 10-60ms
-Target/mask: red/green annuli of diff color
-Task: Reach the mask of the prespecified color.
-Prime-task: Reach the mask which was preceded by prime of the prespecified color.</t>
-  </si>
-  <si>
     <t>Cressman, E. K., Franks, I. M., Enns, J. T., &amp; Chua, R. (2007)</t>
   </si>
   <si>
@@ -322,42 +266,6 @@
 Prime: arrow pointing left/right/neutral
 Target/mask: big arrow pointing left/right/neutral
 Task: Reach the side indicated by the target.</t>
-  </si>
-  <si>
-    <t>Response priming?
-Perceptual priming?</t>
-  </si>
-  <si>
-    <t>Exp 1 (b) uses keypress, Exp 4 uses reach trajectory,
-Other than that they are the same and can be compared for effect size.</t>
-  </si>
-  <si>
-    <t>Exp 2 uses keyboard press
-Task 1: choose mask of prespecified color.
-Task 2: masks of identical color, choose mask preceded by inconsistent color prime.
-Task 1: faster RT for congruent color.
-Task 2: they seem to be aware of the prime.</t>
-  </si>
-  <si>
-    <t>Prime sensitivity was high in all SOAs.
-Reaction time - faster for congruent primes
-Distance from target - larger for incongruent trials? Showed no statistical analysis reslus, but toldd they are significant.</t>
-  </si>
-  <si>
-    <t>Movment time
-Amount of errors
-Correcting movement onset - when subject canged direction from center square to one of the targets.
-Correcting movement length
-correcting movement velocity</t>
-  </si>
-  <si>
-    <t>MT - congruent &lt; neutral &lt; incongruent
-Errors - When a neutral prime preceded a directional mask subjects were 
-             less successful in correcting their movement and avoiding the 
-             center square.
-Correcting movment onset - earlier in congruent primes.
-Correcting movement length - larger for incongruent primes.
-Correcting movemnt velocity - larger for incongruent primes.</t>
   </si>
   <si>
     <t>Task 1: choose mask direction, with keyboard.
@@ -367,22 +275,6 @@
 Could also use correcting movement parameters.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Additional information </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(red poses a risk for us)</t>
-    </r>
-  </si>
-  <si>
     <t>Moher, J., &amp; Song, J. H. (2019)</t>
   </si>
   <si>
@@ -395,10 +287,6 @@
   </si>
   <si>
     <t>Pictures</t>
-  </si>
-  <si>
-    <t>Reach correction
-Subject reaches to a dot, in some trials dot changes location and subject corrects movement accordignly.</t>
   </si>
   <si>
     <t>Motor goal updating</t>
@@ -427,9 +315,6 @@
   </si>
   <si>
     <t>Mouse tracking</t>
-  </si>
-  <si>
-    <t>Cognitive effect on motor planning</t>
   </si>
   <si>
     <t>Simon task
@@ -490,6 +375,541 @@
 Onset time
 Functional data analysis - normalzied, smoothed with B-spline, averaged across trials.
 Compared x-pos between in/congruent.</t>
+  </si>
+  <si>
+    <t>RT
+AUC</t>
+  </si>
+  <si>
+    <t>RT - Longer for incongruent trials.
+AUC - Bigger for incongruent trials.</t>
+  </si>
+  <si>
+    <t>Mouse tracking
++
+Keyboard</t>
+  </si>
+  <si>
+    <t>Xiao, K., &amp; Yamauchi, T. (2014)</t>
+  </si>
+  <si>
+    <t>Semantic priming revealed by mouse movement trajectories</t>
+  </si>
+  <si>
+    <t>Xiao, K., Yamauchi, T., &amp; Bowman, C. (2015)</t>
+  </si>
+  <si>
+    <t>Assessing Masked Semantic Priming: Cursor Trajectory versus Response Time Measures</t>
+  </si>
+  <si>
+    <t>Keyboard RT
+AUC</t>
+  </si>
+  <si>
+    <r>
+      <t>Keyboard RT - Longer for incongruent trials (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barely significant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).
+AUC - Bigger for incongruent trials.
+Greater effect size for AUC.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kang, S. H., Eglington, L. G., &amp; Yap, M. J. (2018)</t>
+  </si>
+  <si>
+    <t>Forward versus backward semantic priming: What movement dynamics during lexical decision reveal</t>
+  </si>
+  <si>
+    <t>RT
+Traj - Calc dist from "unrelated" traj, compare between forward, backward, symmetrical.</t>
+  </si>
+  <si>
+    <t>Kawakami, N., &amp; Miura, E. (2019)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp 1 in : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tracking hand movements captures the response dynamics of the evaluative priming effect</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Process probed </t>
+  </si>
+  <si>
+    <t>Parameter (RT = from stimuli to final answer)</t>
+  </si>
+  <si>
+    <t>AUC
+Onset time
+RT</t>
+  </si>
+  <si>
+    <t>AUC - Bigger for incongruent trials only in evaluative task.
+RT - Longer for incongruent trials only in evaluative task.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp 2 in : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tracking hand movements captures the response dynamics of the evaluative priming effect</t>
+    </r>
+  </si>
+  <si>
+    <t>Awareness measure</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: picture, Tool / Animal
+Target: picture,Elongatged tool / "blob" like animal
+Task: Categorize as animal / tool</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: picture, Tool / Animal
+Target: picture,Elongatged tool / "blob" like animal
+prime-task: Classify the prime.
+                    Separate from main task.
+                    Respond with keyboard.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Additional information </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(red poses a "risk" for us)</t>
+    </r>
+  </si>
+  <si>
+    <t>Awareness result</t>
+  </si>
+  <si>
+    <t>Subs are unaware, d' is about 0.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Reaction time
+Total time (RT)
+Maximum curvature - Ratio between max 
+                             distance from optimal path 
+                              and length of optimal path</t>
+  </si>
+  <si>
+    <t>Number of submovements
+Direction of submovement
+Distance planned - I think this is implied 
+                            endpoint in every timepoint</t>
+  </si>
+  <si>
+    <t>Path offset value - distance from optimal path
+                        at each timepoint, divided by
+                        the  optimal path.
+Cumulative submovment amplitude - how far 
+                         from the target the subject is 
+                          planning on going, at each 
+                          timepoint.</t>
+  </si>
+  <si>
+    <t>Reaction time
+Total time (RT)
+Maximum curvature</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: "abcd" / "efgh"
+Target: words representing red/green items
+Prime-Task: recognize the prime
+                    Separate from main task.
+                    Respond with keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masking
+Prime: "red" / "green", SOA 10-40ms
+Target: words representing red/green items
+Prime-Task: wait 1 sec then recognize the prime.
+                    Separate from main task.
+                    Respond with keyboard.
+</t>
+  </si>
+  <si>
+    <t>Response priming?
+Motor priming?
+Perceptual priming?</t>
+  </si>
+  <si>
+    <t>Prime sensitivity was high in all SOAs.,
+Seem to be aware of the prime.</t>
+  </si>
+  <si>
+    <t>This isn’t a "risk", just more information.
+Exp 2 which uses a keyboard reponse:
+Task 1: choose mask of prespecified color.
+Task 2: masks of identical color, choose mask preceded by inconsistent color prime.
+Result:
+Task 1: Fasrt RT for congruent trials.
+Task 2: Subs seem to be aware of the prime.</t>
+  </si>
+  <si>
+    <t>Masked priming
+Prime: positive/negative image, SOA = 20-150ms
+Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
+Task: digits are identical?</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: positive/negative image.
+Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
+Prime-task: Recognize prime.
+                   Separate from main task.</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: positive/negative image.
+Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
+Prime-task: Recognize prime.
+                    Separate from main task.
+                    Used mouse tracking</t>
+  </si>
+  <si>
+    <t>Masked priming
+Prime: positive/negative image.
+Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
+Task: are digits identical?
+Some answered with mouse tracking, others with keyboard.</t>
+  </si>
+  <si>
+    <t>Semantic priming
+Emotional priming</t>
+  </si>
+  <si>
+    <t>Priming effect = larger AUC for incongruent trials.
+Priming exists also in subs that didn't see the prime (d'=0).
+No correlation between d' and priming effect.
+When analyzing same/diff trials seperatly:
+same - priming effect found only in SOA = 20,50,100.
+diff - priming effect found only in SOA = 50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC:
+Priming exists for subs that didn't see the prime (d'=0)
+No correlation between d' and priming.
+RT:
+Priming doesn't exist for subs that didn't see the prime (d'=0).
+No correlation between d' and priming effect.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Uses reaching to identify semantic priming.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Set size is small (10 targets, 4 primes two of which are also targets)
+Only 80 trials in awareness test
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses keyboard and reaching to show semantic priming
+Exp 1 (b) uses keypress,
+Exp 4 uses reach trajectory,
+Other than that they are the same.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Exp 1 - Half of subjects are aware of the prime,
+             Used only those that were unaware.
+Exp 4 - didn't mention how many were unaware of the prime,
+             Used only those that were unaware.
+In both experiments it can be claimed that the effect is at least partially (if not fully) driven by the shape of the object instead of the category.
+Set size is small (16 primes and 8 targets)
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses reaching to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There is no awareness measure, they don't mention unconscious processing at all.
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses reaching to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp's weakness:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set size is small (10 targets, 4 primes).
+Only 80 trials in awareness test.
+Primes in awareness test are different from those in main task,
+In addition they are non-words.
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses Stylus on tablet to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp's weakness:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set size is small (10 targets, 2 primes).
+Only 60 trials in awareness test.
+Awareness test is seperate from main task,
+And subs are required to wait 1sec before answering it.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses mouse tracking to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp's weakness:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can the connection between "positive" images and "same" response be considerd semantic? Isn't it emotional priming?
+d' in prime task was above 0 for many subs, indicating </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>they saw the prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Don't check absolute value of d' (check correlation with main task instead).
+Only 96 trials in the awareness test.
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Masking
+Prime: picture, Person / Animal,
+            either novel or repeated (apear as target as well)
+Target: picture, Person / Animal
+prime-task: Categorize the prime as person / animal
+                    Separate from main task.</t>
+  </si>
+  <si>
+    <t>Meta contrast masking?
+Prime: red/green disks of diff color, SOA 10-60ms
+Target/mask: red/green annuli of diff color
+Prime-task: Reach the mask which was preceded by
+                   prime of the prespecified color.
+                   Used reaching.
+                  Main-task and prime-task blocks are interleaved.
+                  Each block had one type of task.</t>
+  </si>
+  <si>
+    <t>Reaction time - faster for congruent primes
+Distance from target - larger for incongruent trials?
+                               Showed no statistical analysis reslus,
+                               but toldd they are significant.</t>
+  </si>
+  <si>
+    <t>MT - congruent &lt; neutral &lt; incongruent
+Errors - When a neutral prime preceded a directional mask
+             subjects were less successful in correcting their
+             movement and avoiding the center square.
+Correcting movment onset - earlier in congruent primes.
+Correcting movement length - larger for incongruent primes.
+Correcting movemnt velocity - larger for incongruent primes.</t>
   </si>
   <si>
     <t>AUC - bigger for incongruent trials.
@@ -501,215 +921,161 @@
 MT - Longer for incongruent.
         Longer for uncued trials.
 Onset time - shorter for uncued congruent trilas.
-FDA - Diff in x-pos between congruent and incongruent in early part of traj.</t>
-  </si>
-  <si>
-    <t>RT
-AUC</t>
-  </si>
-  <si>
-    <t>Masked priming
-Prime: positive/negative image.
-Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
-Task: digits are identical?
-Prime-task: Recognize prime.
-Separate tirals for prime-task and target task.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">d' in prime task was above 0, indicating </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+FDA - Diff in x-pos between congruent and incongruent in
+           early part of traj.</t>
+  </si>
+  <si>
+    <t>RT - Shorter for related primes.
+        Shorter for equivalent realation than forward/backward.
+Traj - Larger diff for symmetrical relations.
+         Forward priming's effect starts earlier,
+        then symmetrical and lastly backward primig.</t>
+  </si>
+  <si>
+    <t>AUC - Bigger for incongruent trials in the "evaluation task" in
+           an "evalutaion" block.
+RT - 75% "evaluation" task, rt was faster for the evaluation task.
+        75% "semantic" task, rt was faster for the semantic task.
+        Congruent "evaluation" trials were faster than incongruent,
+        but only when 75% of the trials were "evaluation" task.
+         In that block, congruent evaluation trials were faster
+         regardless if the current trial was an "evaluation" trial
+         or a "semantic" trial.
+Onset time - in the semantic block, onset was shorter
+                     for congruent trials.</t>
+  </si>
+  <si>
+    <t>More submovements were more common in incongruent trials,
+less submovements were more common in congreunt trials.
+Direction of 2nd and 3rd submovements tilted to the wrong
+target in incongruent submovements.
+Distance planned (implied endpoint) reached target
+earlier in congruent trials.</t>
+  </si>
+  <si>
+    <t>POV, CSA:
+novel+repeated primes cause similar congruency effect
+as repeated primes (look in exp 1).</t>
+  </si>
+  <si>
+    <t>POV:
+Sig congruency effect, earlier and larger for non-novel primes.
+Reaches sig after 330ms for non-novel (375 when corrected
+for multiple comparisons).
+CSA:
+Sig congruency effect between 120-340ms.</t>
+  </si>
+  <si>
+    <t>Cognitive effect on
+motor planning</t>
+  </si>
+  <si>
+    <t>Conscious semantic
+priming</t>
+  </si>
+  <si>
+    <t>Reach correction
+Subject reaches to a dot, in some trials dot changes location
+and subject corrects movement accordignly.</t>
+  </si>
+  <si>
+    <t>Meta contrast masking?
+Prime: red/green disks of diff color, SOA 10-60ms
+Target/mask: red/green annuli of diff color
+Task: Reach the mask of the prespecified color.
+Prime-task: Reach the mask which was preceded by prime of
+                  the prespecified color.</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: letter / digit sequence, either novel, repeated or
+            novel+repeated (same letters diff font).
+Target: letter / digit sequence
+Task: Categorize as letter / digit</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: picture, Person / Animal,
+            either novel or repeated (apear as target as well)
+Target: picture, Person / Animal
+Task: Categorize as person / animal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conscious</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>most subs are aware of prime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Regression shows priming effect for subs with 0 awareness (d') and no correlation between prime visibility (d') and size of priming effect.</t>
-    </r>
-  </si>
-  <si>
-    <t>RT - Longer for incongruent trials.
-AUC - Bigger for incongruent trials.</t>
-  </si>
-  <si>
-    <t>Mouse tracking
-+
-Keyboard</t>
-  </si>
-  <si>
-    <t>Compare keyboard RT to mouse tracking AUC.</t>
-  </si>
-  <si>
-    <t>Xiao, K., &amp; Yamauchi, T. (2014)</t>
-  </si>
-  <si>
-    <t>Semantic priming revealed by mouse movement trajectories</t>
-  </si>
-  <si>
-    <t>Xiao, K., Yamauchi, T., &amp; Bowman, C. (2015)</t>
-  </si>
-  <si>
-    <t>Assessing Masked Semantic Priming: Cursor Trajectory versus Response Time Measures</t>
-  </si>
-  <si>
-    <t>Masked priming
-Prime: positive/negative image.
-Target: pair of digits ("3/5", "3/3", "5/5", "5/3").
-Task: are digits identical?
-Prime-task: Recognize prime.
-Separate tirals for prime-task and target task.
-Some answered with mouse tracking, others with keyboard.</t>
-  </si>
-  <si>
-    <t>Keyboard RT
-AUC</t>
-  </si>
-  <si>
-    <r>
-      <t>Keyboard RT - Longer for incongruent trials (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>barely significant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).
-AUC - Bigger for incongruent trials.
-Greater effect size for AUC.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kang, S. H., Eglington, L. G., &amp; Yap, M. J. (2018)</t>
-  </si>
-  <si>
-    <t>Forward versus backward semantic priming: What movement dynamics during lexical decision reveal</t>
-  </si>
-  <si>
-    <t>Conscious semantic priming</t>
-  </si>
-  <si>
-    <t>RT
-Traj - Calc dist from "unrelated" traj, compare between forward, backward, symmetrical.</t>
-  </si>
-  <si>
-    <t>Conscious priming
+      <t xml:space="preserve"> priming
 Prime: word
 Target: word
 Task: Lexical decision on target (word/non-word)
 Prime could be related / not related to target.
-Semantic relation between target and prime could be forawrd / backward / symmetrical priming.</t>
-  </si>
-  <si>
-    <t>RT - Shorter for related primes.
-        Shorter for equivalent realation than forward/backward.
-Traj - Larger diff for symmetrical relations.
-         Forward priming's effect starts earlier, then symmetrical and lastly 
-         backward primig.</t>
-  </si>
-  <si>
-    <t>Kawakami, N., &amp; Miura, E. (2019)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+Semantic relation between target and prime could be
+forawrd / backward / symmetrical priming.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conscious</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Exp 1 in : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tracking hand movements captures the response dynamics of the evaluative priming effect</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Process probed </t>
-  </si>
-  <si>
-    <t>Parameter (RT = from stimuli to final answer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conscious priming
+      <t xml:space="preserve"> priming
 Prime: positive/negative word
 Target: positive/negative words related to persons/objects
 Task: evaluation - is word positive/negative.
           semantic - is word related to person/object.
 half of sub did evaluation task and half
 </t>
-  </si>
-  <si>
-    <t>AUC
-Onset time
-RT</t>
-  </si>
-  <si>
-    <t>AUC - Bigger for incongruent trials only in evaluative task.
-RT - Longer for incongruent trials only in evaluative task.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conscious</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Exp 2 in : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tracking hand movements captures the response dynamics of the evaluative priming effect</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Conscious priming
+      <t xml:space="preserve"> priming
 Prime: positive/negative word
 Target: positive/negative words related to persons/objects
 Task: evaluation - is word positive/negative.
@@ -718,28 +1084,78 @@
 some blocks had 75% evaluation tasks,
 and some had 75% semantic task.
 </t>
-  </si>
-  <si>
-    <t>AUC - Bigger for incongruent trials in the "evaluation task" in an "evalutaion" 
-            block.
-RT - 75% "evaluation" task, rt was faster for the evaluation task.
-        75% "semantic" task, rt was faster for the semantic task.
-        Congruent "evaluation" trials were faster than incongruent, but only 
-         when 75% of the trials were "evaluation" task.
-         In that block, congruent evaluation trials were faster regardless if the 
-         current trial was an "evaluation" trial or a "semantic" trial.
-Onset time - in the semantic block, onset was shorter for congruent trials.</t>
-  </si>
-  <si>
-    <t>Semantic priming
-Emotional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compare semantic priming effect between keyboard (RT) and mouse tracking (AUC).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Exp's weakness:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can the connection between "positive" images and "same" response be considerd semantic? Isn't it emotional priming?
+d' in prime task was above 0 for many subs, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indicating they saw the prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Don't check absolute value of d' (check correlation with main task instead).
+Only 96 trials in the awareness test.
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Movment time
+Amount of errors
+Correcting movement onset - when subject 
+                                  changed direction from 
+                                  center square to one of the 
+                                  targets.
+Correcting movement length
+correcting movement velocity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,13 +1194,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -799,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +1252,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -832,13 +1284,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>226266</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>146958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>7083990</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2803338</xdr:rowOff>
@@ -876,13 +1328,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>11223170</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>3309327</xdr:rowOff>
@@ -937,13 +1389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>321129</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>339457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>3929805</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2952042</xdr:rowOff>
@@ -981,13 +1433,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>527957</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>268544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>3735136</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2163767</xdr:rowOff>
@@ -1025,13 +1477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>4155543</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>7698911</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2520546</xdr:rowOff>
@@ -1069,13 +1521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>587827</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>4544784</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2230229</xdr:rowOff>
@@ -1113,13 +1565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>4131128</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1600255</xdr:rowOff>
@@ -1157,13 +1609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>277585</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>94647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>5785808</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2698246</xdr:rowOff>
@@ -1465,10 +1917,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1476,14 +1930,17 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.92578125" customWidth="1"/>
-    <col min="5" max="5" width="28.92578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.35546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="61.85546875" customWidth="1"/>
-    <col min="9" max="9" width="148.78515625" customWidth="1"/>
+    <col min="7" max="7" width="54.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.35546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.85546875" customWidth="1"/>
+    <col min="11" max="11" width="148.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="22.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,33 +1954,39 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="234.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="282.89999999999998" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1534,394 +1997,466 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
+      <c r="H2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="265.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="265.3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="183.9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="70.75" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="137.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="12" spans="1:11" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="137.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:11" ht="221.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="226.3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="240.45" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="155.6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="221.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="99" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="99" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="155.6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71CBC68-1C93-42E3-9569-29FD4F9900DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C434223-4F08-455F-A444-F6BA788A6971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,12 +514,6 @@
     <t>Masking
 Prime: picture, Tool / Animal
 Target: picture,Elongatged tool / "blob" like animal
-Task: Categorize as animal / tool</t>
-  </si>
-  <si>
-    <t>Masking
-Prime: picture, Tool / Animal
-Target: picture,Elongatged tool / "blob" like animal
 prime-task: Classify the prime.
                     Separate from main task.
                     Respond with keyboard.</t>
@@ -1149,6 +1143,12 @@
                                   targets.
 Correcting movement length
 correcting movement velocity</t>
+  </si>
+  <si>
+    <t>Masking
+Prime: picture, Tool / Animal of shape Elongated / "blob"
+Target: picture, Elongated tool / "blob" like animal
+Task: Categorize as animal / tool</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1919,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1966,10 +1966,10 @@
         <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>39</v>
@@ -1986,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1998,11 +1998,11 @@
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="141.44999999999999" x14ac:dyDescent="0.35">
@@ -2016,25 +2016,25 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="70.75" x14ac:dyDescent="0.35">
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2057,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2080,19 +2080,19 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="183.9" x14ac:dyDescent="0.35">
@@ -2112,19 +2112,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
@@ -2144,19 +2144,19 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.35">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -2179,16 +2179,16 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2205,13 +2205,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2230,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -2258,7 +2258,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -2314,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2330,10 +2330,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>58</v>
@@ -2342,13 +2342,13 @@
         <v>59</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="240.45" x14ac:dyDescent="0.35">
@@ -2362,10 +2362,10 @@
         <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
@@ -2374,13 +2374,13 @@
         <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.35">
@@ -2394,16 +2394,16 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2419,7 +2419,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -2444,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -2453,7 +2453,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C434223-4F08-455F-A444-F6BA788A6971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7ACA4-3457-49A7-AFB4-05256A34B4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1920,9 +1929,9 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7ACA4-3457-49A7-AFB4-05256A34B4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5F1DA-9328-429B-938C-A07C3F2A9016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>Authors</t>
   </si>
@@ -728,36 +728,6 @@
              Used only those that were unaware.
 In both experiments it can be claimed that the effect is at least partially (if not fully) driven by the shape of the object instead of the category.
 Set size is small (16 primes and 8 targets)
-Awareness test is seperate from main task.
-Didn't use a subjective measure.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uses reaching to identify semantic priming.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exp's weakness:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-There is no awareness measure, they don't mention unconscious processing at all.
 Awareness test is seperate from main task.
 Didn't use a subjective measure.</t>
     </r>
@@ -961,14 +931,6 @@
 as repeated primes (look in exp 1).</t>
   </si>
   <si>
-    <t>POV:
-Sig congruency effect, earlier and larger for non-novel primes.
-Reaches sig after 330ms for non-novel (375 when corrected
-for multiple comparisons).
-CSA:
-Sig congruency effect between 120-340ms.</t>
-  </si>
-  <si>
     <t>Cognitive effect on
 motor planning</t>
   </si>
@@ -1159,12 +1121,95 @@
 Target: picture, Elongated tool / "blob" like animal
 Task: Categorize as animal / tool</t>
   </si>
+  <si>
+    <t>POV:
+Sig congruency effect, earlier and larger for non-novel primes.
+Reaches sig after 330ms for non-novel (375 when corrected
+for multiple comparisons).
+CSA:
+Sig congruency effect between 120-340ms.</t>
+  </si>
+  <si>
+    <t>Test values</t>
+  </si>
+  <si>
+    <t>POV:
+ANOVA, prime type X prime congruence:
+F(1,15) = 34.5 --&gt; congruency effect.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses reaching to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There is no awareness measure, they don't mention unconscious processing at all.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum Curvature:
+t-test,
+t(6) = 4.23 --&gt; incongruent - congruent</t>
+  </si>
+  <si>
+    <t>Maximum Curvature:
+t-test,
+t(6) = 4.57 --&gt; incongruent - congruent, SOA = 30
+t(6) = 3.55 --&gt; incongruent - congruent, SOA = 40</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUC:
+incongruent (M = 0.73, SD = 0.39)
+congruent (M = 0.67, SD = 0.35)
+F(1, 366) = 54.76, MSE = 0.61
+t = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F = 7.4</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,6 +1268,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1293,13 +1350,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>226266</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>146958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7083990</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2803338</xdr:rowOff>
@@ -1337,13 +1394,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>11223170</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>3309327</xdr:rowOff>
@@ -1398,13 +1455,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>321129</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>339457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3929805</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2952042</xdr:rowOff>
@@ -1442,13 +1499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>527957</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>268544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3735136</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2163767</xdr:rowOff>
@@ -1486,13 +1543,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4155543</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7698911</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2520546</xdr:rowOff>
@@ -1530,13 +1587,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>587827</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4544784</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>2230229</xdr:rowOff>
@@ -1574,13 +1631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4131128</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1600255</xdr:rowOff>
@@ -1618,13 +1675,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>277585</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>94647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>5785808</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2698246</xdr:rowOff>
@@ -1926,12 +1983,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1943,13 +2000,14 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.0703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.35546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.85546875" customWidth="1"/>
-    <col min="11" max="11" width="148.78515625" customWidth="1"/>
+    <col min="8" max="8" width="54.640625" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.35546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.85546875" customWidth="1"/>
+    <col min="12" max="12" width="148.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="22.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,19 +2030,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="282.89999999999998" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="282.89999999999998" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2006,15 +2067,16 @@
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="141.44999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="141.44999999999999" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2025,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2034,19 +2096,22 @@
         <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2066,13 +2131,14 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="265.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="265.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2092,19 +2158,20 @@
         <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>101</v>
+      <c r="J5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="183.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="183.9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2127,16 +2194,19 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>102</v>
+      <c r="K6" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2159,16 +2229,19 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>103</v>
+      <c r="K7" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2179,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -2188,19 +2261,20 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2217,18 +2291,19 @@
         <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="137.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="137.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2239,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -2252,8 +2327,9 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2267,7 +2343,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -2277,8 +2353,9 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="113.15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2302,8 +2379,9 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="221.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="221.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2323,12 +2401,13 @@
         <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="226.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="226.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2350,17 +2429,20 @@
       <c r="G14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>104</v>
+      <c r="K14" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="240.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="240.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2464,18 @@
       <c r="G15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>124</v>
+      <c r="K15" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2403,21 +2486,22 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="99" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2428,7 +2512,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -2441,8 +2525,9 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="155.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="155.6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2538,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -2462,10 +2547,11 @@
         <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5F1DA-9328-429B-938C-A07C3F2A9016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94FF4E-1158-448E-9D90-AD672471C4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="133">
   <si>
     <t>Authors</t>
   </si>
@@ -690,44 +690,6 @@
       <t xml:space="preserve">
 Set size is small (10 targets, 4 primes two of which are also targets)
 Only 80 trials in awareness test
-Awareness test is seperate from main task.
-Didn't use a subjective measure.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uses keyboard and reaching to show semantic priming
-Exp 1 (b) uses keypress,
-Exp 4 uses reach trajectory,
-Other than that they are the same.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exp's weakness:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Exp 1 - Half of subjects are aware of the prime,
-             Used only those that were unaware.
-Exp 4 - didn't mention how many were unaware of the prime,
-             Used only those that were unaware.
-In both experiments it can be claimed that the effect is at least partially (if not fully) driven by the shape of the object instead of the category.
-Set size is small (16 primes and 8 targets)
 Awareness test is seperate from main task.
 Didn't use a subjective measure.</t>
     </r>
@@ -1203,6 +1165,49 @@
       </rPr>
       <t>F = 7.4</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses keyboard and reaching to show semantic priming
+Exp 1 (b) uses keypress,
+Exp 4 uses reach trajectory,
+Other than that they are the same.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Exp 1 - Half of subjects are aware of the prime,
+             Used only those that were unaware. --&gt; regression to the mean = 
+             some "unaware" sybjects are unaware because of measurement 
+              error. They will inflate the unconscious effect.
+Exp 4 - didn't mention how many were unaware of the prime,
+             Used only those that were unaware.
+In both experiments it can be claimed that the effect is at least partially (if not fully) driven by the shape of the object instead of the category.
+Set size is small (16 primes and 8 targets)
+Awareness test is seperate from main task.
+Didn't use a subjective measure.</t>
+    </r>
+  </si>
+  <si>
+    <t>N=58, out of which only 37 were unaware and used for the analysis.</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +1990,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2030,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>77</v>
@@ -2045,7 +2050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="282.89999999999998" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="311.14999999999998" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2071,9 +2076,11 @@
       <c r="I2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K2" s="6" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="141.44999999999999" x14ac:dyDescent="0.35">
@@ -2087,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -2096,13 +2103,13 @@
         <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>81</v>
@@ -2122,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2131,7 +2138,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2158,7 +2165,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
@@ -2168,7 +2175,7 @@
         <v>82</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="183.9" x14ac:dyDescent="0.35">
@@ -2194,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>87</v>
@@ -2203,7 +2210,7 @@
         <v>81</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
@@ -2229,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -2238,7 +2245,7 @@
         <v>81</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.35">
@@ -2252,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -2261,11 +2268,11 @@
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>90</v>
@@ -2291,10 +2298,10 @@
         <v>89</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2314,7 +2321,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -2343,7 +2350,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -2401,7 +2408,7 @@
         <v>57</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2430,7 +2437,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>94</v>
@@ -2439,7 +2446,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="240.45" x14ac:dyDescent="0.35">
@@ -2472,7 +2479,7 @@
         <v>98</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.35">
@@ -2486,16 +2493,16 @@
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2512,7 +2519,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
@@ -2538,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>51</v>
@@ -2547,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94FF4E-1158-448E-9D90-AD672471C4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4F9304-E85D-4446-B7BE-F61F3779B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>Authors</t>
   </si>
@@ -1438,7 +1438,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19572514" y="5426528"/>
+          <a:off x="36165367" y="6771066"/>
           <a:ext cx="10956470" cy="3200470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1990,29 +1990,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.0703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.640625" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.35546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.85546875" customWidth="1"/>
-    <col min="12" max="12" width="148.78515625" customWidth="1"/>
+    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.4375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.625" customWidth="1"/>
+    <col min="9" max="9" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.875" customWidth="1"/>
+    <col min="12" max="12" width="148.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="311.14999999999998" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="297.75" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="141.44999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="136.5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="67.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="265.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="265.35000000000002" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="183.9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="176.25" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="238.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="238.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="179.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="179.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="137.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="137.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="108" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="108" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="221.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="221.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="226.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="190.15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="240.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="202.9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="99" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="94.9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="155.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="148.9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>70</v>
       </c>

--- a/paper/Paper/prev_work.xlsx
+++ b/paper/Paper/prev_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\paper\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4F9304-E85D-4446-B7BE-F61F3779B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64489DE9-8737-4A20-A24F-05A8AB20BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,35 +1100,6 @@
 F(1,15) = 34.5 --&gt; congruency effect.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Uses reaching to identify semantic priming.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exp's weakness:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-There is no awareness measure, they don't mention unconscious processing at all.
-Didn't use a subjective measure.</t>
-    </r>
-  </si>
-  <si>
     <t>Maximum Curvature:
 t-test,
 t(6) = 4.23 --&gt; incongruent - congruent</t>
@@ -1208,6 +1179,35 @@
   </si>
   <si>
     <t>N=58, out of which only 37 were unaware and used for the analysis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses reaching to identify semantic priming.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exp's weakness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There is no awareness measure. They assume the primes are conscious but don't test for it.
+Didn't use a subjective measure.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1990,10 +1990,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2077,10 +2077,10 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="136.5" x14ac:dyDescent="0.4">
@@ -2175,7 +2175,7 @@
         <v>82</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="176.25" x14ac:dyDescent="0.4">
@@ -2201,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>87</v>
@@ -2236,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -2437,7 +2437,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>94</v>
